--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/NORTH_CAROLINA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/NORTH_CAROLINA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1529"/>
+  <dimension ref="A1:D1523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C33">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C36">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C38">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C45">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C51">
@@ -1337,7 +1337,7 @@
         <v>17</v>
       </c>
       <c r="D73">
-        <v>0.0009406296685663697</v>
+        <v>0.0009406296685663696</v>
       </c>
     </row>
     <row r="74">
@@ -1382,7 +1382,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C77">
@@ -1395,7 +1395,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C78">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C84">
@@ -1642,7 +1642,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C97">
@@ -1655,7 +1655,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C98">
@@ -1694,7 +1694,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Santiago el Pinar</t>
+          <t>Santiago El Pinar</t>
         </is>
       </c>
       <c r="C101">
@@ -2128,7 +2128,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C134">
@@ -2180,7 +2180,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C138">
@@ -2419,7 +2419,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C156">
@@ -2574,13 +2574,13 @@
         <v>17</v>
       </c>
       <c r="D167">
-        <v>0.0009406296685663697</v>
+        <v>0.0009406296685663696</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2637,7 +2637,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C172">
@@ -2941,7 +2941,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C195">
@@ -2980,7 +2980,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C198">
@@ -3045,7 +3045,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C203">
@@ -3058,7 +3058,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C204">
@@ -3149,12 +3149,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C211">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C215">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C221">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C232">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C238">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C244">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C257">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C265">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C267">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C277">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C285">
@@ -4181,7 +4181,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C290">
@@ -4194,7 +4194,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C291">
@@ -4207,7 +4207,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C292">
@@ -4220,7 +4220,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C293">
@@ -4349,7 +4349,7 @@
         <v>17</v>
       </c>
       <c r="D302">
-        <v>0.0009406296685663697</v>
+        <v>0.0009406296685663696</v>
       </c>
     </row>
     <row r="303">
@@ -4381,7 +4381,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C305">
@@ -4394,7 +4394,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C306">
@@ -4498,7 +4498,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C314">
@@ -4550,7 +4550,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C318">
@@ -4648,13 +4648,13 @@
         <v>17</v>
       </c>
       <c r="D325">
-        <v>0.0009406296685663697</v>
+        <v>0.0009406296685663696</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C326">
@@ -4706,7 +4706,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C330">
@@ -4732,7 +4732,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C332">
@@ -4758,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C334">
@@ -4771,7 +4771,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C335">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C336">
@@ -4849,7 +4849,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C341">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C347">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C350">
@@ -4984,7 +4984,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C351">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C355">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C357">
@@ -5075,7 +5075,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C358">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C361">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C362">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C363">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C364">
@@ -5218,7 +5218,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C369">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C370">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C374">
@@ -5296,14 +5296,14 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C375">
         <v>163</v>
       </c>
       <c r="D375">
-        <v>0.009018978586842251</v>
+        <v>0.009018978586842252</v>
       </c>
     </row>
     <row r="376">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C381">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C382">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C384">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C385">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C387">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C390">
@@ -5660,7 +5660,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C403">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C405">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C407">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C409">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C412">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C413">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C425">
@@ -6029,7 +6029,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C431">
@@ -6042,7 +6042,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C432">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C437">
@@ -6146,7 +6146,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C440">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C443">
@@ -6224,7 +6224,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C446">
@@ -6302,7 +6302,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C452">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C453">
@@ -6328,7 +6328,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C454">
@@ -6341,7 +6341,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C455">
@@ -6367,7 +6367,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C457">
@@ -6380,7 +6380,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C458">
@@ -6393,7 +6393,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C459">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C462">
@@ -6510,7 +6510,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C468">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C469">
@@ -6575,7 +6575,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C473">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C475">
@@ -6614,7 +6614,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C476">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C479">
@@ -6757,7 +6757,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C487">
@@ -6770,7 +6770,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C488">
@@ -6783,7 +6783,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C489">
@@ -6835,7 +6835,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C493">
@@ -6931,7 +6931,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C500">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C502">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C515">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C520">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C521">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C524">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C527">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C532">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C537">
@@ -7425,7 +7425,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C538">
@@ -7438,7 +7438,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C539">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C540">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C542">
@@ -7503,7 +7503,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C544">
@@ -7542,7 +7542,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C547">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C548">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C549">
@@ -7620,7 +7620,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C553">
@@ -7633,7 +7633,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C554">
@@ -7698,7 +7698,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C559">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C560">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C563">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C564">
@@ -8041,7 +8041,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C585">
@@ -8529,7 +8529,7 @@
         <v>17</v>
       </c>
       <c r="D622">
-        <v>0.0009406296685663697</v>
+        <v>0.0009406296685663696</v>
       </c>
     </row>
     <row r="623">
@@ -8808,7 +8808,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C644">
@@ -9086,7 +9086,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C665">
@@ -9229,7 +9229,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C676">
@@ -9307,7 +9307,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C682">
@@ -9416,7 +9416,7 @@
     <row r="690">
       <c r="B690" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C690">
@@ -9468,7 +9468,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C694">
@@ -9559,7 +9559,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C701">
@@ -9753,7 +9753,7 @@
         <v>17</v>
       </c>
       <c r="D715">
-        <v>0.0009406296685663697</v>
+        <v>0.0009406296685663696</v>
       </c>
     </row>
     <row r="716">
@@ -9837,7 +9837,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C722">
@@ -9850,7 +9850,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C723">
@@ -9876,7 +9876,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C725">
@@ -9933,7 +9933,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C729">
@@ -10024,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C736">
@@ -10037,7 +10037,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C737">
@@ -10089,7 +10089,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C741">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C743">
@@ -10128,7 +10128,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C744">
@@ -10141,7 +10141,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C745">
@@ -10154,7 +10154,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C746">
@@ -10167,7 +10167,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C747">
@@ -10180,7 +10180,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C748">
@@ -10193,7 +10193,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C749">
@@ -10206,7 +10206,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C750">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C751">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C752">
@@ -10245,7 +10245,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C753">
@@ -10336,7 +10336,7 @@
     <row r="760">
       <c r="B760" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C760">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C761">
@@ -10375,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C763">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C765">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C766">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C768">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C770">
@@ -10479,7 +10479,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C771">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C772">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C773">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C774">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C778">
@@ -10648,7 +10648,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C784">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C786">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C797">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C803">
@@ -11116,7 +11116,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C820">
@@ -11246,7 +11246,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C830">
@@ -11259,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C831">
@@ -11500,7 +11500,7 @@
         <v>17</v>
       </c>
       <c r="D849">
-        <v>0.0009406296685663697</v>
+        <v>0.0009406296685663696</v>
       </c>
     </row>
     <row r="850">
@@ -11649,7 +11649,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C861">
@@ -11662,7 +11662,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C862">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C863">
@@ -11844,7 +11844,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C876">
@@ -11896,7 +11896,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C880">
@@ -12299,7 +12299,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C911">
@@ -12839,7 +12839,7 @@
         <v>17</v>
       </c>
       <c r="D952">
-        <v>0.0009406296685663697</v>
+        <v>0.0009406296685663696</v>
       </c>
     </row>
     <row r="953">
@@ -12995,7 +12995,7 @@
         <v>17</v>
       </c>
       <c r="D964">
-        <v>0.0009406296685663697</v>
+        <v>0.0009406296685663696</v>
       </c>
     </row>
     <row r="965">
@@ -13053,7 +13053,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C969">
@@ -13235,7 +13235,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C983">
@@ -13248,7 +13248,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C984">
@@ -13261,7 +13261,7 @@
     <row r="985">
       <c r="B985" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C985">
@@ -13274,7 +13274,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C986">
@@ -13287,7 +13287,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C987">
@@ -13300,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C988">
@@ -13326,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C990">
@@ -13339,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C991">
@@ -13352,7 +13352,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C992">
@@ -13378,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C994">
@@ -13417,7 +13417,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C997">
@@ -13656,7 +13656,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1015">
@@ -13695,7 +13695,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1018">
@@ -13916,7 +13916,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1035">
@@ -13929,7 +13929,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1036">
@@ -14085,7 +14085,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1048">
@@ -14137,7 +14137,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1052">
@@ -14163,7 +14163,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1054">
@@ -14280,7 +14280,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1063">
@@ -14371,7 +14371,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1070">
@@ -14612,7 +14612,7 @@
         <v>17</v>
       </c>
       <c r="D1088">
-        <v>0.0009406296685663697</v>
+        <v>0.0009406296685663696</v>
       </c>
     </row>
     <row r="1089">
@@ -14657,7 +14657,7 @@
     <row r="1092">
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1092">
@@ -14722,7 +14722,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1097">
@@ -14735,7 +14735,7 @@
     <row r="1098">
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1098">
@@ -14813,7 +14813,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1104">
@@ -14839,7 +14839,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1106">
@@ -14891,7 +14891,7 @@
     <row r="1110">
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1110">
@@ -15047,7 +15047,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1122">
@@ -15260,7 +15260,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1138">
@@ -15286,7 +15286,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1140">
@@ -15364,7 +15364,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1146">
@@ -15377,7 +15377,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1147">
@@ -15416,7 +15416,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1150">
@@ -15455,7 +15455,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1153">
@@ -15608,7 +15608,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1164">
@@ -15673,7 +15673,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1169">
@@ -15686,7 +15686,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1170">
@@ -15803,7 +15803,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1179">
@@ -15868,7 +15868,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1184">
@@ -15920,7 +15920,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1188">
@@ -15946,7 +15946,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1190">
@@ -15979,7 +15979,7 @@
         <v>17</v>
       </c>
       <c r="D1192">
-        <v>0.0009406296685663697</v>
+        <v>0.0009406296685663696</v>
       </c>
     </row>
     <row r="1193">
@@ -16076,7 +16076,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1200">
@@ -16089,7 +16089,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1201">
@@ -16102,7 +16102,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1202">
@@ -16115,7 +16115,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1203">
@@ -16128,7 +16128,7 @@
     <row r="1204">
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1204">
@@ -16141,7 +16141,7 @@
     <row r="1205">
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1205">
@@ -16489,7 +16489,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1231">
@@ -16663,7 +16663,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1244">
@@ -17123,7 +17123,7 @@
     <row r="1279">
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1279">
@@ -17284,7 +17284,7 @@
     <row r="1291">
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1291">
@@ -17336,7 +17336,7 @@
     <row r="1295">
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1295">
@@ -17388,7 +17388,7 @@
     <row r="1299">
       <c r="B1299" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1299">
@@ -17601,7 +17601,7 @@
     <row r="1315">
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1315">
@@ -17653,7 +17653,7 @@
     <row r="1319">
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1319">
@@ -17783,7 +17783,7 @@
     <row r="1329">
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1329">
@@ -17809,7 +17809,7 @@
     <row r="1331">
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1331">
@@ -17848,7 +17848,7 @@
     <row r="1334">
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1334">
@@ -17952,7 +17952,7 @@
     <row r="1342">
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1342">
@@ -18121,7 +18121,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1355">
@@ -18316,7 +18316,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1370">
@@ -18329,7 +18329,7 @@
     <row r="1371">
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1371">
@@ -18342,7 +18342,7 @@
     <row r="1372">
       <c r="B1372" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1372">
@@ -18394,7 +18394,7 @@
     <row r="1376">
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1376">
@@ -18407,7 +18407,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1377">
@@ -18420,7 +18420,7 @@
     <row r="1378">
       <c r="B1378" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1378">
@@ -18550,7 +18550,7 @@
     <row r="1388">
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1388">
@@ -18576,7 +18576,7 @@
     <row r="1390">
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1390">
@@ -18615,7 +18615,7 @@
     <row r="1393">
       <c r="B1393" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1393">
@@ -18667,7 +18667,7 @@
     <row r="1397">
       <c r="B1397" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1397">
@@ -18706,7 +18706,7 @@
     <row r="1400">
       <c r="B1400" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1400">
@@ -18758,7 +18758,7 @@
     <row r="1404">
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1404">
@@ -18888,7 +18888,7 @@
     <row r="1414">
       <c r="B1414" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1414">
@@ -18901,7 +18901,7 @@
     <row r="1415">
       <c r="B1415" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1415">
@@ -18940,7 +18940,7 @@
     <row r="1418">
       <c r="B1418" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1418">
@@ -19044,7 +19044,7 @@
     <row r="1426">
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1426">
@@ -19083,7 +19083,7 @@
     <row r="1429">
       <c r="B1429" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1429">
@@ -19174,7 +19174,7 @@
     <row r="1436">
       <c r="B1436" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1436">
@@ -19395,7 +19395,7 @@
     <row r="1453">
       <c r="B1453" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1453">
@@ -19564,7 +19564,7 @@
     <row r="1466">
       <c r="B1466" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1466">
@@ -19823,7 +19823,7 @@
         <v>17</v>
       </c>
       <c r="D1485">
-        <v>0.0009406296685663697</v>
+        <v>0.0009406296685663696</v>
       </c>
     </row>
     <row r="1486">
@@ -19873,7 +19873,7 @@
     <row r="1489">
       <c r="B1489" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1489">
@@ -19977,7 +19977,7 @@
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1497">
@@ -20042,7 +20042,7 @@
     <row r="1502">
       <c r="B1502" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1502">
@@ -20081,7 +20081,7 @@
     <row r="1505">
       <c r="B1505" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1505">
@@ -20094,7 +20094,7 @@
     <row r="1506">
       <c r="B1506" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1506">
@@ -20211,7 +20211,7 @@
     <row r="1515">
       <c r="B1515" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1515">
@@ -20224,7 +20224,7 @@
     <row r="1516">
       <c r="B1516" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1516">
@@ -20250,7 +20250,7 @@
     <row r="1518">
       <c r="B1518" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1518">
@@ -20323,41 +20323,6 @@
       </c>
       <c r="D1523">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1527">
-      <c r="A1527" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1528">
-      <c r="A1528" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1529">
-      <c r="A1529" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>
